--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_General.xlsx
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -532,10 +532,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -555,28 +555,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -587,28 +587,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.149178372461535E-07</v>
+        <v>0.009348655955216501</v>
       </c>
       <c r="D2">
-        <v>1.287579798114891E-06</v>
+        <v>0.0145739921536836</v>
       </c>
       <c r="E2">
-        <v>0.0002603073730047534</v>
+        <v>0.03895749117734137</v>
       </c>
       <c r="F2">
-        <v>2.402544618584912E-06</v>
+        <v>0.02097010059017079</v>
       </c>
       <c r="G2">
-        <v>1.131273941190614E-08</v>
+        <v>0.008770594071426219</v>
       </c>
       <c r="H2">
-        <v>1.338905002423729E-07</v>
+        <v>0.01041051977450214</v>
       </c>
       <c r="I2">
-        <v>2.29566423648464E-08</v>
+        <v>0.008602401169364837</v>
       </c>
       <c r="J2">
-        <v>0.02495006947276379</v>
+        <v>0.1805340155793134</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.149178372461535E-07</v>
+        <v>0.009348655955216501</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4.409311725406262E-05</v>
       </c>
       <c r="E3">
-        <v>3.256950265040359E-12</v>
+        <v>0.001285292206323785</v>
       </c>
       <c r="F3">
-        <v>2.904221880761781E-07</v>
+        <v>0.009264341909712037</v>
       </c>
       <c r="G3">
-        <v>0.0002081182311357566</v>
+        <v>0.01763273101747753</v>
       </c>
       <c r="H3">
-        <v>1.643253976468806E-05</v>
+        <v>0.01129677035920218</v>
       </c>
       <c r="I3">
-        <v>0.007439939879098523</v>
+        <v>0.03814544533403308</v>
       </c>
       <c r="J3">
-        <v>2.220446049250313E-16</v>
+        <v>0.0004542018997495401</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.287579798114891E-06</v>
+        <v>0.0145739921536836</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4.409311725406262E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.006319110847699E-09</v>
+        <v>0.003402129693828693</v>
       </c>
       <c r="F4">
-        <v>3.819941111871117E-06</v>
+        <v>0.01524936719278558</v>
       </c>
       <c r="G4">
-        <v>0.02254724323985458</v>
+        <v>0.09264238494183585</v>
       </c>
       <c r="H4">
-        <v>0.01091530438494304</v>
+        <v>0.07836846013718857</v>
       </c>
       <c r="I4">
-        <v>0.6156255165971345</v>
+        <v>0.6414060685503875</v>
       </c>
       <c r="J4">
-        <v>4.951594689828198E-14</v>
+        <v>0.0008141827819834191</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0002603073730047534</v>
+        <v>0.03895749117734137</v>
       </c>
       <c r="C5">
-        <v>3.256950265040359E-12</v>
+        <v>0.001285292206323785</v>
       </c>
       <c r="D5">
-        <v>2.006319110847699E-09</v>
+        <v>0.003402129693828693</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.001225563481446423</v>
+        <v>0.05045272604095907</v>
       </c>
       <c r="G5">
-        <v>0.009605568340647075</v>
+        <v>0.02361361202704138</v>
       </c>
       <c r="H5">
-        <v>0.000438051561684194</v>
+        <v>0.006130563304465486</v>
       </c>
       <c r="I5">
-        <v>1.179099016446195E-05</v>
+        <v>0.005922490574846284</v>
       </c>
       <c r="J5">
-        <v>9.81920087461674E-08</v>
+        <v>0.001359964783045342</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.402544618584912E-06</v>
+        <v>0.02097010059017079</v>
       </c>
       <c r="C6">
-        <v>2.904221880761781E-07</v>
+        <v>0.009264341909712037</v>
       </c>
       <c r="D6">
-        <v>3.819941111871117E-06</v>
+        <v>0.01524936719278558</v>
       </c>
       <c r="E6">
-        <v>0.001225563481446423</v>
+        <v>0.05045272604095907</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.783113666777638E-08</v>
+        <v>0.008221848978701152</v>
       </c>
       <c r="H6">
-        <v>5.666035307605455E-07</v>
+        <v>0.01041599587972541</v>
       </c>
       <c r="I6">
-        <v>5.848075534942154E-08</v>
+        <v>0.008399239234146316</v>
       </c>
       <c r="J6">
-        <v>0.138629939847682</v>
+        <v>0.3282394305669851</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.131273941190614E-08</v>
+        <v>0.008770594071426219</v>
       </c>
       <c r="C7">
-        <v>0.0002081182311357566</v>
+        <v>0.01763273101747753</v>
       </c>
       <c r="D7">
-        <v>0.02254724323985458</v>
+        <v>0.09264238494183585</v>
       </c>
       <c r="E7">
-        <v>0.009605568340647075</v>
+        <v>0.02361361202704138</v>
       </c>
       <c r="F7">
-        <v>3.783113666777638E-08</v>
+        <v>0.008221848978701152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4448502396497873</v>
+        <v>0.3993389294435115</v>
       </c>
       <c r="I7">
-        <v>0.01171827397404113</v>
+        <v>0.07494986794828629</v>
       </c>
       <c r="J7">
-        <v>3.976818874207311E-13</v>
+        <v>0.0002882213082229246</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.338905002423729E-07</v>
+        <v>0.01041051977450214</v>
       </c>
       <c r="C8">
-        <v>1.643253976468806E-05</v>
+        <v>0.01129677035920218</v>
       </c>
       <c r="D8">
-        <v>0.01091530438494304</v>
+        <v>0.07836846013718857</v>
       </c>
       <c r="E8">
-        <v>0.000438051561684194</v>
+        <v>0.006130563304465486</v>
       </c>
       <c r="F8">
-        <v>5.666035307605455E-07</v>
+        <v>0.01041599587972541</v>
       </c>
       <c r="G8">
-        <v>0.4448502396497873</v>
+        <v>0.3993389294435115</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.02997941956667405</v>
+        <v>0.09409883306369204</v>
       </c>
       <c r="J8">
-        <v>6.439293542825908E-15</v>
+        <v>0.0002072739114911126</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.29566423648464E-08</v>
+        <v>0.008602401169364837</v>
       </c>
       <c r="C9">
-        <v>0.007439939879098523</v>
+        <v>0.03814544533403308</v>
       </c>
       <c r="D9">
-        <v>0.6156255165971345</v>
+        <v>0.6414060685503875</v>
       </c>
       <c r="E9">
-        <v>1.179099016446195E-05</v>
+        <v>0.005922490574846284</v>
       </c>
       <c r="F9">
-        <v>5.848075534942154E-08</v>
+        <v>0.008399239234146316</v>
       </c>
       <c r="G9">
-        <v>0.01171827397404113</v>
+        <v>0.07494986794828629</v>
       </c>
       <c r="H9">
-        <v>0.02997941956667405</v>
+        <v>0.09409883306369204</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>2.065014825802791E-14</v>
+        <v>0.0002667018596558268</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02495006947276379</v>
+        <v>0.1805340155793134</v>
       </c>
       <c r="C10">
-        <v>2.220446049250313E-16</v>
+        <v>0.0004542018997495401</v>
       </c>
       <c r="D10">
-        <v>4.951594689828198E-14</v>
+        <v>0.0008141827819834191</v>
       </c>
       <c r="E10">
-        <v>9.81920087461674E-08</v>
+        <v>0.001359964783045342</v>
       </c>
       <c r="F10">
-        <v>0.138629939847682</v>
+        <v>0.3282394305669851</v>
       </c>
       <c r="G10">
-        <v>3.976818874207311E-13</v>
+        <v>0.0002882213082229246</v>
       </c>
       <c r="H10">
-        <v>6.439293542825908E-15</v>
+        <v>0.0002072739114911126</v>
       </c>
       <c r="I10">
-        <v>2.065014825802791E-14</v>
+        <v>0.0002667018596558268</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.328324209908813</v>
+        <v>2.848307454412941</v>
       </c>
       <c r="D2">
-        <v>4.862296949416949</v>
+        <v>2.651609509664682</v>
       </c>
       <c r="E2">
-        <v>3.661015954466834</v>
+        <v>2.195640238823384</v>
       </c>
       <c r="F2">
-        <v>4.735341912069297</v>
+        <v>2.486627551202071</v>
       </c>
       <c r="G2">
-        <v>5.743272315765507</v>
+        <v>2.876226202826496</v>
       </c>
       <c r="H2">
-        <v>5.299948111962177</v>
+        <v>2.80105814201709</v>
       </c>
       <c r="I2">
-        <v>5.619539328270447</v>
+        <v>2.884679608026738</v>
       </c>
       <c r="J2">
-        <v>2.244525162407588</v>
+        <v>1.383025466157474</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.328324209908813</v>
+        <v>-2.848307454412941</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.452573545651571</v>
+        <v>-5.07358700442393</v>
       </c>
       <c r="E3">
-        <v>-7.02655095074372</v>
+        <v>-3.688513177280016</v>
       </c>
       <c r="F3">
-        <v>-5.153999173955487</v>
+        <v>-2.852275286457594</v>
       </c>
       <c r="G3">
-        <v>-3.718483067072374</v>
+        <v>-2.565699054335158</v>
       </c>
       <c r="H3">
-        <v>-4.323241914327706</v>
+        <v>-2.765008918929533</v>
       </c>
       <c r="I3">
-        <v>-2.680283752759639</v>
+        <v>-2.205786134408974</v>
       </c>
       <c r="J3">
-        <v>-8.269481713672562</v>
+        <v>-4.116260530357766</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.862296949416949</v>
+        <v>-2.651609509664682</v>
       </c>
       <c r="C4">
-        <v>9.452573545651571</v>
+        <v>5.07358700442393</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.036025296980555</v>
+        <v>-3.282267999678816</v>
       </c>
       <c r="F4">
-        <v>-4.638952426574043</v>
+        <v>-2.63127198169974</v>
       </c>
       <c r="G4">
-        <v>-2.283481067337563</v>
+        <v>-1.758067872748599</v>
       </c>
       <c r="H4">
-        <v>-2.548710072216233</v>
+        <v>-1.846157739044234</v>
       </c>
       <c r="I4">
-        <v>-0.5021689431756832</v>
+        <v>-0.4722401901876879</v>
       </c>
       <c r="J4">
-        <v>-7.609226779379799</v>
+        <v>-3.876766447159473</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.661015954466834</v>
+        <v>-2.195640238823384</v>
       </c>
       <c r="C5">
-        <v>7.02655095074372</v>
+        <v>3.688513177280016</v>
       </c>
       <c r="D5">
-        <v>6.036025296980555</v>
+        <v>3.282267999678816</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.239306295050096</v>
+        <v>-2.069417690080629</v>
       </c>
       <c r="G5">
-        <v>2.593185753426762</v>
+        <v>2.431926170549513</v>
       </c>
       <c r="H5">
-        <v>3.524209457274706</v>
+        <v>3.0314406922746</v>
       </c>
       <c r="I5">
-        <v>4.396838305613533</v>
+        <v>3.046288351131652</v>
       </c>
       <c r="J5">
-        <v>-5.357392182237533</v>
+        <v>-3.665149033151636</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.735341912069297</v>
+        <v>-2.486627551202071</v>
       </c>
       <c r="C6">
-        <v>5.153999173955487</v>
+        <v>2.852275286457594</v>
       </c>
       <c r="D6">
-        <v>4.638952426574043</v>
+        <v>2.63127198169974</v>
       </c>
       <c r="E6">
-        <v>3.239306295050096</v>
+        <v>2.069417690080629</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.530700108385254</v>
+        <v>2.904404162684012</v>
       </c>
       <c r="H6">
-        <v>5.024970192430976</v>
+        <v>2.800826576384943</v>
       </c>
       <c r="I6">
-        <v>5.452172314284525</v>
+        <v>2.895103589286281</v>
       </c>
       <c r="J6">
-        <v>1.48173430807963</v>
+        <v>0.9998812944066217</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.743272315765507</v>
+        <v>-2.876226202826496</v>
       </c>
       <c r="C7">
-        <v>3.718483067072374</v>
+        <v>2.565699054335158</v>
       </c>
       <c r="D7">
-        <v>2.283481067337563</v>
+        <v>1.758067872748599</v>
       </c>
       <c r="E7">
-        <v>-2.593185753426762</v>
+        <v>-2.431926170549513</v>
       </c>
       <c r="F7">
-        <v>-5.530700108385254</v>
+        <v>-2.904404162684012</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7642388055759123</v>
+        <v>0.8594905532491552</v>
       </c>
       <c r="I7">
-        <v>2.52374023694671</v>
+        <v>1.869310308183943</v>
       </c>
       <c r="J7">
-        <v>-7.324571093916395</v>
+        <v>-4.302446226804591</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.299948111962177</v>
+        <v>-2.80105814201709</v>
       </c>
       <c r="C8">
-        <v>4.323241914327706</v>
+        <v>2.765008918929533</v>
       </c>
       <c r="D8">
-        <v>2.548710072216233</v>
+        <v>1.846157739044234</v>
       </c>
       <c r="E8">
-        <v>-3.524209457274706</v>
+        <v>-3.0314406922746</v>
       </c>
       <c r="F8">
-        <v>-5.024970192430976</v>
+        <v>-2.800826576384943</v>
       </c>
       <c r="G8">
-        <v>-0.7642388055759123</v>
+        <v>-0.8594905532491552</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.172517443139356</v>
+        <v>1.7497514818427</v>
       </c>
       <c r="J8">
-        <v>-7.877934166382556</v>
+        <v>-4.437369341256422</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.619539328270447</v>
+        <v>-2.884679608026738</v>
       </c>
       <c r="C9">
-        <v>2.680283752759639</v>
+        <v>2.205786134408974</v>
       </c>
       <c r="D9">
-        <v>0.5021689431756832</v>
+        <v>0.4722401901876879</v>
       </c>
       <c r="E9">
-        <v>-4.396838305613533</v>
+        <v>-3.046288351131652</v>
       </c>
       <c r="F9">
-        <v>-5.452172314284525</v>
+        <v>-2.895103589286281</v>
       </c>
       <c r="G9">
-        <v>-2.52374023694671</v>
+        <v>-1.869310308183943</v>
       </c>
       <c r="H9">
-        <v>-2.172517443139356</v>
+        <v>-1.7497514818427</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.725955216222953</v>
+        <v>-4.334200029440385</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.244525162407588</v>
+        <v>-1.383025466157474</v>
       </c>
       <c r="C10">
-        <v>8.269481713672562</v>
+        <v>4.116260530357766</v>
       </c>
       <c r="D10">
-        <v>7.609226779379799</v>
+        <v>3.876766447159473</v>
       </c>
       <c r="E10">
-        <v>5.357392182237533</v>
+        <v>3.665149033151636</v>
       </c>
       <c r="F10">
-        <v>-1.48173430807963</v>
+        <v>-0.9998812944066217</v>
       </c>
       <c r="G10">
-        <v>7.324571093916395</v>
+        <v>4.302446226804591</v>
       </c>
       <c r="H10">
-        <v>7.877934166382556</v>
+        <v>4.437369341256422</v>
       </c>
       <c r="I10">
-        <v>7.725955216222953</v>
+        <v>4.334200029440385</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
         <v>0.5811703937302604</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
         <v>0.8493397463712098</v>
@@ -1480,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
         <v>0.80053267444356</v>
@@ -1497,22 +1497,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>1.070183749104134</v>
+        <v>1.40982501785926</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>1.10673458558518</v>
@@ -1537,62 +1537,62 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>1.40982501785926</v>
+        <v>1.070183749104134</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.270482596061766</v>
+        <v>2.468373163546003</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.468373163546003</v>
+        <v>2.270482596061766</v>
       </c>
     </row>
     <row r="10" spans="1:6">

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Tests_DM/dm_completo_General.xlsx
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -718,25 +718,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.009348655955216501</v>
+        <v>0.004089267754796122</v>
       </c>
       <c r="D2">
-        <v>0.0145739921536836</v>
+        <v>0.005580194651003234</v>
       </c>
       <c r="E2">
-        <v>0.03895749117734137</v>
+        <v>0.005665983033237953</v>
       </c>
       <c r="F2">
-        <v>0.02097010059017079</v>
+        <v>0.003375321531346787</v>
       </c>
       <c r="G2">
-        <v>0.008770594071426219</v>
+        <v>0.002933515985283908</v>
       </c>
       <c r="H2">
-        <v>0.01041051977450214</v>
+        <v>0.002304293433922799</v>
       </c>
       <c r="I2">
-        <v>0.008602401169364837</v>
+        <v>0.001617792009312335</v>
       </c>
       <c r="J2">
-        <v>0.1805340155793134</v>
+        <v>0.006771279120310947</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.009348655955216501</v>
+        <v>0.004089267754796122</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>4.409311725406262E-05</v>
+        <v>3.513821171807763E-07</v>
       </c>
       <c r="E3">
-        <v>0.001285292206323785</v>
+        <v>1.631107702237955E-07</v>
       </c>
       <c r="F3">
-        <v>0.009264341909712037</v>
+        <v>0.004313407956318072</v>
       </c>
       <c r="G3">
-        <v>0.01763273101747753</v>
+        <v>0.009718668112737028</v>
       </c>
       <c r="H3">
-        <v>0.01129677035920218</v>
+        <v>0.0146135572882975</v>
       </c>
       <c r="I3">
-        <v>0.03814544533403308</v>
+        <v>0.02852969703580444</v>
       </c>
       <c r="J3">
-        <v>0.0004542018997495401</v>
+        <v>0.002471948655241807</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0145739921536836</v>
+        <v>0.005580194651003234</v>
       </c>
       <c r="C4">
-        <v>4.409311725406262E-05</v>
+        <v>3.513821171807763E-07</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.003402129693828693</v>
+        <v>0.1643384136306141</v>
       </c>
       <c r="F4">
-        <v>0.01524936719278558</v>
+        <v>0.006066232431486185</v>
       </c>
       <c r="G4">
-        <v>0.09264238494183585</v>
+        <v>0.02476199698037118</v>
       </c>
       <c r="H4">
-        <v>0.07836846013718857</v>
+        <v>0.03418333338482804</v>
       </c>
       <c r="I4">
-        <v>0.6414060685503875</v>
+        <v>0.07127772070150673</v>
       </c>
       <c r="J4">
-        <v>0.0008141827819834191</v>
+        <v>0.005547350622852276</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03895749117734137</v>
+        <v>0.005665983033237953</v>
       </c>
       <c r="C5">
-        <v>0.001285292206323785</v>
+        <v>1.631107702237955E-07</v>
       </c>
       <c r="D5">
-        <v>0.003402129693828693</v>
+        <v>0.1643384136306141</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.05045272604095907</v>
+        <v>0.006167541320990733</v>
       </c>
       <c r="G5">
-        <v>0.02361361202704138</v>
+        <v>0.02569107001829263</v>
       </c>
       <c r="H5">
-        <v>0.006130563304465486</v>
+        <v>0.03524778562752595</v>
       </c>
       <c r="I5">
-        <v>0.005922490574846284</v>
+        <v>0.07321968668659862</v>
       </c>
       <c r="J5">
-        <v>0.001359964783045342</v>
+        <v>0.005791120602685496</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02097010059017079</v>
+        <v>0.003375321531346787</v>
       </c>
       <c r="C6">
-        <v>0.009264341909712037</v>
+        <v>0.004313407956318072</v>
       </c>
       <c r="D6">
-        <v>0.01524936719278558</v>
+        <v>0.006066232431486185</v>
       </c>
       <c r="E6">
-        <v>0.05045272604095907</v>
+        <v>0.006167541320990733</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.008221848978701152</v>
+        <v>0.003000318706931404</v>
       </c>
       <c r="H6">
-        <v>0.01041599587972541</v>
+        <v>0.002278593161246789</v>
       </c>
       <c r="I6">
-        <v>0.008399239234146316</v>
+        <v>0.001499627206859255</v>
       </c>
       <c r="J6">
-        <v>0.3282394305669851</v>
+        <v>0.008097617442223148</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.008770594071426219</v>
+        <v>0.002933515985283908</v>
       </c>
       <c r="C7">
-        <v>0.01763273101747753</v>
+        <v>0.009718668112737028</v>
       </c>
       <c r="D7">
-        <v>0.09264238494183585</v>
+        <v>0.02476199698037118</v>
       </c>
       <c r="E7">
-        <v>0.02361361202704138</v>
+        <v>0.02569107001829263</v>
       </c>
       <c r="F7">
-        <v>0.008221848978701152</v>
+        <v>0.003000318706931404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3993389294435115</v>
+        <v>0.4248969266142815</v>
       </c>
       <c r="I7">
-        <v>0.07494986794828629</v>
+        <v>0.1178340822483079</v>
       </c>
       <c r="J7">
-        <v>0.0002882213082229246</v>
+        <v>0.004379441492491587</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01041051977450214</v>
+        <v>0.002304293433922799</v>
       </c>
       <c r="C8">
-        <v>0.01129677035920218</v>
+        <v>0.0146135572882975</v>
       </c>
       <c r="D8">
-        <v>0.07836846013718857</v>
+        <v>0.03418333338482804</v>
       </c>
       <c r="E8">
-        <v>0.006130563304465486</v>
+        <v>0.03524778562752595</v>
       </c>
       <c r="F8">
-        <v>0.01041599587972541</v>
+        <v>0.002278593161246789</v>
       </c>
       <c r="G8">
-        <v>0.3993389294435115</v>
+        <v>0.4248969266142815</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.09409883306369204</v>
+        <v>0.1228219044728562</v>
       </c>
       <c r="J8">
-        <v>0.0002072739114911126</v>
+        <v>0.03071976876843663</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.008602401169364837</v>
+        <v>0.001617792009312335</v>
       </c>
       <c r="C9">
-        <v>0.03814544533403308</v>
+        <v>0.02852969703580444</v>
       </c>
       <c r="D9">
-        <v>0.6414060685503875</v>
+        <v>0.07127772070150673</v>
       </c>
       <c r="E9">
-        <v>0.005922490574846284</v>
+        <v>0.07321968668659862</v>
       </c>
       <c r="F9">
-        <v>0.008399239234146316</v>
+        <v>0.001499627206859255</v>
       </c>
       <c r="G9">
-        <v>0.07494986794828629</v>
+        <v>0.1178340822483079</v>
       </c>
       <c r="H9">
-        <v>0.09409883306369204</v>
+        <v>0.1228219044728562</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0002667018596558268</v>
+        <v>0.001887291073745967</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1805340155793134</v>
+        <v>0.006771279120310947</v>
       </c>
       <c r="C10">
-        <v>0.0004542018997495401</v>
+        <v>0.002471948655241807</v>
       </c>
       <c r="D10">
-        <v>0.0008141827819834191</v>
+        <v>0.005547350622852276</v>
       </c>
       <c r="E10">
-        <v>0.001359964783045342</v>
+        <v>0.005791120602685496</v>
       </c>
       <c r="F10">
-        <v>0.3282394305669851</v>
+        <v>0.008097617442223148</v>
       </c>
       <c r="G10">
-        <v>0.0002882213082229246</v>
+        <v>0.004379441492491587</v>
       </c>
       <c r="H10">
-        <v>0.0002072739114911126</v>
+        <v>0.03071976876843663</v>
       </c>
       <c r="I10">
-        <v>0.0002667018596558268</v>
+        <v>0.001887291073745967</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.848307454412941</v>
+        <v>3.079235206833349</v>
       </c>
       <c r="D2">
-        <v>2.651609509664682</v>
+        <v>2.95939324914355</v>
       </c>
       <c r="E2">
-        <v>2.195640238823384</v>
+        <v>2.953457424791467</v>
       </c>
       <c r="F2">
-        <v>2.486627551202071</v>
+        <v>3.152224119327644</v>
       </c>
       <c r="G2">
-        <v>2.876226202826496</v>
+        <v>3.205150999210361</v>
       </c>
       <c r="H2">
-        <v>2.80105814201709</v>
+        <v>3.295425054618158</v>
       </c>
       <c r="I2">
-        <v>2.884679608026738</v>
+        <v>3.425989917498085</v>
       </c>
       <c r="J2">
-        <v>1.383025466157474</v>
+        <v>2.883723961177867</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.848307454412941</v>
+        <v>-3.079235206833349</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.07358700442393</v>
+        <v>-6.300756531009315</v>
       </c>
       <c r="E3">
-        <v>-3.688513177280016</v>
+        <v>-6.559576688473601</v>
       </c>
       <c r="F3">
-        <v>-2.852275286457594</v>
+        <v>-3.05880717675863</v>
       </c>
       <c r="G3">
-        <v>-2.565699054335158</v>
+        <v>-2.739900897632825</v>
       </c>
       <c r="H3">
-        <v>-2.765008918929533</v>
+        <v>-2.573133342193341</v>
       </c>
       <c r="I3">
-        <v>-2.205786134408974</v>
+        <v>-2.287216919933953</v>
       </c>
       <c r="J3">
-        <v>-4.116260530357766</v>
+        <v>-3.269265522528634</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.651609509664682</v>
+        <v>-2.95939324914355</v>
       </c>
       <c r="C4">
-        <v>5.07358700442393</v>
+        <v>6.300756531009315</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.282267999678816</v>
+        <v>-1.421296564153435</v>
       </c>
       <c r="F4">
-        <v>-2.63127198169974</v>
+        <v>-2.926836055316888</v>
       </c>
       <c r="G4">
-        <v>-1.758067872748599</v>
+        <v>-2.349216612035108</v>
       </c>
       <c r="H4">
-        <v>-1.846157739044234</v>
+        <v>-2.20677636686731</v>
       </c>
       <c r="I4">
-        <v>-0.4722401901876879</v>
+        <v>-1.86191094166729</v>
       </c>
       <c r="J4">
-        <v>-3.876766447159473</v>
+        <v>-2.961688556771476</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.195640238823384</v>
+        <v>-2.953457424791467</v>
       </c>
       <c r="C5">
-        <v>3.688513177280016</v>
+        <v>6.559576688473601</v>
       </c>
       <c r="D5">
-        <v>3.282267999678816</v>
+        <v>1.421296564153435</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.069417690080629</v>
+        <v>-2.920360188467997</v>
       </c>
       <c r="G5">
-        <v>2.431926170549513</v>
+        <v>-2.333175467013595</v>
       </c>
       <c r="H5">
-        <v>3.0314406922746</v>
+        <v>-2.192979890160755</v>
       </c>
       <c r="I5">
-        <v>3.046288351131652</v>
+        <v>-1.848655179420843</v>
       </c>
       <c r="J5">
-        <v>-3.665149033151636</v>
+        <v>-2.944949010548658</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.486627551202071</v>
+        <v>-3.152224119327644</v>
       </c>
       <c r="C6">
-        <v>2.852275286457594</v>
+        <v>3.05880717675863</v>
       </c>
       <c r="D6">
-        <v>2.63127198169974</v>
+        <v>2.926836055316888</v>
       </c>
       <c r="E6">
-        <v>2.069417690080629</v>
+        <v>2.920360188467997</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.904404162684012</v>
+        <v>3.196680101604289</v>
       </c>
       <c r="H6">
-        <v>2.800826576384943</v>
+        <v>3.29959513003287</v>
       </c>
       <c r="I6">
-        <v>2.895103589286281</v>
+        <v>3.453744643261475</v>
       </c>
       <c r="J6">
-        <v>0.9998812944066217</v>
+        <v>2.812953220528768</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.876226202826496</v>
+        <v>-3.205150999210361</v>
       </c>
       <c r="C7">
-        <v>2.565699054335158</v>
+        <v>2.739900897632825</v>
       </c>
       <c r="D7">
-        <v>1.758067872748599</v>
+        <v>2.349216612035108</v>
       </c>
       <c r="E7">
-        <v>-2.431926170549513</v>
+        <v>2.333175467013595</v>
       </c>
       <c r="F7">
-        <v>-2.904404162684012</v>
+        <v>-3.196680101604289</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.8594905532491552</v>
+        <v>-0.8076672775478759</v>
       </c>
       <c r="I7">
-        <v>1.869310308183943</v>
+        <v>1.60459008578959</v>
       </c>
       <c r="J7">
-        <v>-4.302446226804591</v>
+        <v>-3.052980466506471</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.80105814201709</v>
+        <v>-3.295425054618158</v>
       </c>
       <c r="C8">
-        <v>2.765008918929533</v>
+        <v>2.573133342193341</v>
       </c>
       <c r="D8">
-        <v>1.846157739044234</v>
+        <v>2.20677636686731</v>
       </c>
       <c r="E8">
-        <v>-3.0314406922746</v>
+        <v>2.192979890160755</v>
       </c>
       <c r="F8">
-        <v>-2.800826576384943</v>
+        <v>-3.29959513003287</v>
       </c>
       <c r="G8">
-        <v>-0.8594905532491552</v>
+        <v>0.8076672775478759</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.7497514818427</v>
+        <v>1.582379947411685</v>
       </c>
       <c r="J8">
-        <v>-4.437369341256422</v>
+        <v>-2.254491531144558</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.884679608026738</v>
+        <v>-3.425989917498085</v>
       </c>
       <c r="C9">
-        <v>2.205786134408974</v>
+        <v>2.287216919933953</v>
       </c>
       <c r="D9">
-        <v>0.4722401901876879</v>
+        <v>1.86191094166729</v>
       </c>
       <c r="E9">
-        <v>-3.046288351131652</v>
+        <v>1.848655179420843</v>
       </c>
       <c r="F9">
-        <v>-2.895103589286281</v>
+        <v>-3.453744643261475</v>
       </c>
       <c r="G9">
-        <v>-1.869310308183943</v>
+        <v>-1.60459008578959</v>
       </c>
       <c r="H9">
-        <v>-1.7497514818427</v>
+        <v>-1.582379947411685</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-4.334200029440385</v>
+        <v>-3.369349379882974</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.383025466157474</v>
+        <v>-2.883723961177867</v>
       </c>
       <c r="C10">
-        <v>4.116260530357766</v>
+        <v>3.269265522528634</v>
       </c>
       <c r="D10">
-        <v>3.876766447159473</v>
+        <v>2.961688556771476</v>
       </c>
       <c r="E10">
-        <v>3.665149033151636</v>
+        <v>2.944949010548658</v>
       </c>
       <c r="F10">
-        <v>-0.9998812944066217</v>
+        <v>-2.812953220528768</v>
       </c>
       <c r="G10">
-        <v>4.302446226804591</v>
+        <v>3.052980466506471</v>
       </c>
       <c r="H10">
-        <v>4.437369341256422</v>
+        <v>2.254491531144558</v>
       </c>
       <c r="I10">
-        <v>4.334200029440385</v>
+        <v>3.369349379882974</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,39 +1440,39 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>0.5811703937302604</v>
+        <v>0.5705563583352558</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8493397463712098</v>
+        <v>4.450756068883417</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,19 +1480,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.80053267444356</v>
+        <v>0.8271820525765932</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1500,64 +1500,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.40982501785926</v>
+        <v>0.8299708573007165</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.10673458558518</v>
+        <v>4.109739326196543</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.070183749104134</v>
+        <v>1.818061203487019</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1572,12 +1572,12 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.468373163546003</v>
+        <v>1.866885788167447</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.270482596061766</v>
+        <v>1.62336650943424</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.959247250829587</v>
+        <v>2.173583111142386</v>
       </c>
     </row>
   </sheetData>
